--- a/Formulario de calificacion de peliculas - Depurado.xlsx
+++ b/Formulario de calificacion de peliculas - Depurado.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4064" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4148" uniqueCount="502">
   <si>
     <t xml:space="preserve">Index</t>
   </si>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Link en The Movie DB</t>
   </si>
   <si>
-    <t xml:space="preserve">Edad al momento de ver la pelicula</t>
+    <t xml:space="preserve">Edad al momento de ver la película</t>
   </si>
   <si>
     <t xml:space="preserve">Sexo</t>
@@ -1490,6 +1490,42 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.themoviedb.org/movie/529790-pachamama?language=es-MX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spider-Man: Lejos de casa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.themoviedb.org/movie/429617-spider-man-far-from-home?language=es-MX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feo pero Sabroso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.themoviedb.org/movie/627446-feo-pero-sabroso?language=es-ES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kardec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.themoviedb.org/movie/600335-kardec?language=es-MX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La leyenda del tesoro perdido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.themoviedb.org/movie/2059-national-treasure?language=es-MX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réplicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.themoviedb.org/movie/300681-replicas?language=es-MX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.themoviedb.org/movie/475557-joker?language=es-MX</t>
   </si>
 </sst>
 </file>
@@ -1585,22 +1621,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H677"/>
+  <dimension ref="A1:H691"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="69.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="114.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="8.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19203,6 +19232,370 @@
       </c>
       <c r="H677" s="0" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A678" s="0" t="n">
+        <v>212</v>
+      </c>
+      <c r="B678" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="C678" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D678" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="E678" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F678" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G678" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H678" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A679" s="0" t="n">
+        <v>212</v>
+      </c>
+      <c r="B679" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="C679" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D679" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="E679" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F679" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G679" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H679" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A680" s="0" t="n">
+        <v>212</v>
+      </c>
+      <c r="B680" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="C680" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D680" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="E680" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F680" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G680" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H680" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A681" s="0" t="n">
+        <v>213</v>
+      </c>
+      <c r="B681" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="C681" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D681" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="E681" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F681" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G681" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H681" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A682" s="0" t="n">
+        <v>214</v>
+      </c>
+      <c r="B682" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="C682" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D682" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="E682" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F682" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G682" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H682" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A683" s="0" t="n">
+        <v>215</v>
+      </c>
+      <c r="B683" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="C683" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D683" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="E683" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F683" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G683" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H683" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A684" s="0" t="n">
+        <v>215</v>
+      </c>
+      <c r="B684" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="C684" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D684" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="E684" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F684" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G684" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H684" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A685" s="0" t="n">
+        <v>215</v>
+      </c>
+      <c r="B685" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="C685" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D685" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="E685" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F685" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G685" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H685" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A686" s="0" t="n">
+        <v>215</v>
+      </c>
+      <c r="B686" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="C686" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D686" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="E686" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F686" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G686" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H686" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A687" s="0" t="n">
+        <v>216</v>
+      </c>
+      <c r="B687" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="C687" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D687" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="E687" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F687" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G687" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H687" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A688" s="0" t="n">
+        <v>216</v>
+      </c>
+      <c r="B688" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="C688" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D688" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="E688" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F688" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G688" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H688" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A689" s="0" t="n">
+        <v>217</v>
+      </c>
+      <c r="B689" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="C689" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D689" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="E689" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F689" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G689" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H689" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A690" s="0" t="n">
+        <v>217</v>
+      </c>
+      <c r="B690" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="C690" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D690" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="E690" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F690" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G690" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H690" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A691" s="0" t="n">
+        <v>217</v>
+      </c>
+      <c r="B691" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="C691" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D691" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="E691" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F691" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G691" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H691" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
